--- a/doc/KIBNET_전문.xlsx
+++ b/doc/KIBNET_전문.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18075" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18075" windowHeight="11820" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="거래" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="로그분석" sheetId="3" r:id="rId4"/>
     <sheet name="HI_전문" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="ReceiveDaemon_log" sheetId="7" r:id="rId7"/>
+    <sheet name="KibReceiver_log" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="1167">
   <si>
     <t>;</t>
   </si>
@@ -3016,13 +3018,523 @@
   <si>
     <t xml:space="preserve">        #2#trAmt|0000000106685| #3#lcalScalCd| |        #4#trAfRamt|0000000000000|      #5#etcAmt|0000000000000|</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Socket Accepted</t>
+  </si>
+  <si>
+    <t>처음 파싱한 4자리 값 : 0554</t>
+  </si>
+  <si>
+    <t>처음 파싱한 4자리 값의  길이 : 4</t>
+  </si>
+  <si>
+    <t>rtnStr.toString() : 0554055000092003290300006000008880120010  302001100   2011110315463102096622020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length() : 549</t>
+  </si>
+  <si>
+    <t>--------------- 새로운 소켓 연결을 시작합니다.... ------------</t>
+  </si>
+  <si>
+    <t>172.20.101.41 : 9800 서버에 연결시도중.....</t>
+  </si>
+  <si>
+    <t>172.20.101.41 : 9800 서버에 연결했습니다.</t>
+  </si>
+  <si>
+    <t>===== KibReceiver에 보내는 데이터 =======</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880120010  302001100   2011110315463102096622020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>===============================</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ReceiveDaemon.nPORT  : 9800 , gramLength : 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> totCnt : 554</t>
+  </si>
+  <si>
+    <t>======== rcvMsg() KibReceiver에서 받은 전문 ===================</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880120010  3021011000002011110315463102096622020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>============================================</t>
+  </si>
+  <si>
+    <t>[신용정보사 응답전문--------------------------------------]</t>
+  </si>
+  <si>
+    <t>[--------------------------------------------------][554]바이트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtnStr.toString() : </t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length() : 0</t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length()가 0이므로 소켓종료합니다.</t>
+  </si>
+  <si>
+    <t>클라이언트 채널이 종료되었습니다.</t>
+  </si>
+  <si>
+    <t>처음 파싱한 4자리 값 : 0585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtnStr.toString() : 0585055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            </t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length() : 582</t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            ]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880040010  3021041000002011110320111102096872020032903601032903                                                                                                                           20001347  0 3              정상                                    000447              0000000100000 00000000000000000000000000200329030056201550207156  박정현-하이         0000008800123456789012            박정현              00000000000000000000000000000000000000000000000000000000000  01111031546300000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>rtnStr.toString() : 0554055000092003290300006000008880267860  302001100   2011110315463402096902020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length() : 551</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880267860  302001100   2011110315463402096902020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880267860  3021011000002011110315463402096902020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>rtnStr.toString() : 0554055000092003290300006000008880040010  302001100   2011110315465802098512020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880040010  302001100   2011110315465802098512020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880040010  3021011000002011110315465802098512020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtnStr.toString() : 0585055000092003290300006000008880230010  302004100   2011110320111102100152020032903601032903                                                                                                                           20001347  0 3                                                      000448              0000000095946 00000000000000000000000000200329030056201550462949                      0000008800123456789012            강인선              00000                     0000000         00000000   000000  01111031547100000000                                                            </t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880230010  302004100   2011110320111102100152020032903601032903                                                                                                                           20001347  0 3                                                      000448              0000000095946 00000000000000000000000000200329030056201550462949                      0000008800123456789012            강인선              00000                     0000000         00000000   000000  01111031547100000000                                                            ]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880230010  3021041000002011110320111102100152020032903601032903                                                                                                                           20001347  0 3              정상                                    000448              0000000095946 00000000000000000000000000200329030056201550462949  강인선-하이         0000008800123456789012            강인선              00000000000000000000000000000000000000000000000000000000000  01111031547100000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>rtnStr.toString() : 0554055000092003290300006000008880230010  302001100   2011110315475302102712020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880230010  302001100   2011110315475302102712020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880230010  3021011000002011110315475302102712020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtnStr.toString() : 0585055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            </t>
+  </si>
+  <si>
+    <t>rtnStr.toString().length() : 585</t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            ]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880120010  302001100   2011110315463102096622020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]  [554]</t>
+  </si>
+  <si>
+    <t>attr[13]  : 20111103</t>
+  </si>
+  <si>
+    <t>attr[14]  : 154631</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0209662</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:12.288 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:12.288 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:12.288 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:12.288 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02001100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880120010  302001100   2011110315463102096622020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #2#trAmt|0000000099996| #3#lcalScalCd| |        #4#trAfRamt|0000000000000|      #5#etcAmt|0000000000000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550486180  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000026|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|                |        #13#pswd|        |      #14#oamtAcntNm|강기주　　          |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #1#trOrgCd|C1004|       #2#trNo|201111030209662|        #3#trDt|2011-11-03|     #4#trSnum|209662|       #5#rcptTpCd|C1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#bankCd|26|   #7#trAmt|99996.0|       #8#acntNo|56201550486180|       #9#depoOwnNo||  #10#depoOwnnm|강기주　　|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#iamtRsltCd|000|     #12#recvDt|2011-11-03|  #13#recvTm|154559|      #14#setlFg|0|   #15#setlNo|0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#mngDeptCd|330000|   #27#unCnfmFg||  #28#procDt|2011-11-03|  #29#procTm|154559|      #30#procEmpNo|System|</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:293] - acntNo56201550486180</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:297] - SEARCH_LOAN_FOR_CMScom.cabis.sc.b.util.LoggableStatement@2db02db0</t>
+  </si>
+  <si>
+    <t>DEBUG [LoggableStatement.java:290] - 수행시간 - 2, 변경건수 : 1</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:551] - CMS입금 응답전문--&gt;21R02001100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880120010  3021011000002011110315463102096622020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880120010  3021011000002011110315463102096622020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000099996 00000000000000000000000000200329030056201550486180                      0000002600                        강기주　　          000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            ]  [585]</t>
+  </si>
+  <si>
+    <t>attr[14]  : 201111</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0209687</t>
+  </si>
+  <si>
+    <t>attr[26]  : 000447</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.286 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.286 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.286 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.286 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02004100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550207156  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000088|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|123456789012    |        #13#pswd|        |      #14#oamtAcntNm|박정현              |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#chkKindNo3|00|      #27#chkNo4|0  01111|    #28#chkIssuInfo4|031546|        #29#chkKindNo4|30|      #30#chkNo5|0000000 |</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:671] - CMS입금 응답전문--&gt;21R02004100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880040010  3021041000002011110320111102096872020032903601032903                                                                                                                           20001347  0 3              정상                                    000447              0000000100000 00000000000000000000000000200329030056201550207156  박정현-하이         0000008800123456789012            박정현              00000000000000000000000000000000000000000000000000000000000  01111031546300000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880040010  3021041000002011110320111102096872020032903601032903                                                                                                                           20001347  0 3              정상                                    000447              0000000100000 00000000000000000000000000200329030056201550207156  박정현-하이         0000008800123456789012            박정현              00000000000000000000000000000000000000000000000000000000000  01111031546300000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880267860  302001100   2011110315463402096902020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]  [554]</t>
+  </si>
+  <si>
+    <t>attr[7]   : 0267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attr[8]   : 860  </t>
+  </si>
+  <si>
+    <t>attr[14]  : 154634</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0209690</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.641 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.641 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.641 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:15.641 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02001100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880267860  302001100   2011110315463402096902020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #2#trAmt|0000000098945| #3#lcalScalCd| |        #4#trAfRamt|0000000000000|      #5#etcAmt|0000000000000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550413080  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000026|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|                |        #13#pswd|        |      #14#oamtAcntNm|정현숙              |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG [CmsRecvGramCC.java:231] - 지점코드[0267], 단말코드[860  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #1#trOrgCd|C1004|       #2#trNo|201111030209690|        #3#trDt|2011-11-03|     #4#trSnum|209690|       #5#rcptTpCd|C1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#bankCd|26|   #7#trAmt|98945.0|       #8#acntNo|56201550413080|       #9#depoOwnNo||  #10#depoOwnnm|정현숙|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#iamtRsltCd|000|     #12#recvDt|2011-11-03|  #13#recvTm|154602|      #14#setlFg|0|   #15#setlNo|0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#mngDeptCd|330000|   #27#unCnfmFg||  #28#procDt|2011-11-03|  #29#procTm|154602|      #30#procEmpNo|System|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #31#bankBrnchCd|0267|   #32#trmnCd|860  |</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:293] - acntNo56201550413080</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:297] - SEARCH_LOAN_FOR_CMScom.cabis.sc.b.util.LoggableStatement@302c302c</t>
+  </si>
+  <si>
+    <t>DEBUG [LoggableStatement.java:290] - 수행시간 - 7, 변경건수 : 1</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:551] - CMS입금 응답전문--&gt;21R02001100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880267860  3021011000002011110315463402096902020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880267860  3021011000002011110315463402096902020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000098945 00000000000000000000000000200329030056201550413080                      0000002600                        정현숙              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880040010  302001100   2011110315465802098512020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]  [554]</t>
+  </si>
+  <si>
+    <t>attr[14]  : 154658</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0209851</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:39.032 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:39.032 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:39.032 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:39.032 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02001100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880040010  302001100   2011110315465802098512020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550207156  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000026|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|                |        #13#pswd|        |      #14#oamtAcntNm|박정현              |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #1#trOrgCd|C1004|       #2#trNo|201111030209851|        #3#trDt|2011-11-03|     #4#trSnum|209851|       #5#rcptTpCd|C1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#bankCd|26|   #7#trAmt|100000.0|      #8#acntNo|56201550207156|       #9#depoOwnNo||  #10#depoOwnnm|박정현|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#iamtRsltCd|000|     #12#recvDt|2011-11-03|  #13#recvTm|154625|      #14#setlFg|0|   #15#setlNo|0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#mngDeptCd|330000|   #27#unCnfmFg||  #28#procDt|2011-11-03|  #29#procTm|154625|      #30#procEmpNo|System|</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:293] - acntNo56201550207156</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:297] - SEARCH_LOAN_FOR_CMScom.cabis.sc.b.util.LoggableStatement@70357035</t>
+  </si>
+  <si>
+    <t>DEBUG [LoggableStatement.java:290] - 수행시간 - 14, 변경건수 : 1</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:551] - CMS입금 응답전문--&gt;21R02001100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880040010  3021011000002011110315465802098512020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880040010  3021011000002011110315465802098512020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000100000 00000000000000000000000000200329030056201550207156                      0000002600                        박정현              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880230010  302004100   2011110320111102100152020032903601032903                                                                                                                           20001347  0 3                                                      000448              0000000095946 00000000000000000000000000200329030056201550462949                      0000008800123456789012            강인선              00000                     0000000         00000000   000000  01111031547100000000                                                            ]  [585]</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0210015</t>
+  </si>
+  <si>
+    <t>attr[26]  : 000448</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:59.602 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:59.602 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:59.602 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:46:59.603 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02004100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880230010  302004100   2011110320111102100152020032903601032903                                                                                                                           20001347  0 3                                                      000448              0000000095946 00000000000000000000000000200329030056201550462949                      0000008800123456789012            강인선              00000                     0000000         00000000   000000  01111031547100000000                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #2#trAmt|0000000095946| #3#lcalScalCd| |        #4#trAfRamt|0000000000000|      #5#etcAmt|0000000000000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550462949  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000088|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|123456789012    |        #13#pswd|        |      #14#oamtAcntNm|강인선              |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#chkKindNo3|00|      #27#chkNo4|0  01111|    #28#chkIssuInfo4|031547|        #29#chkKindNo4|10|      #30#chkNo5|0000000 |</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:671] - CMS입금 응답전문--&gt;21R02004100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880230010  3021041000002011110320111102100152020032903601032903                                                                                                                           20001347  0 3              정상                                    000448              0000000095946 00000000000000000000000000200329030056201550462949  강인선-하이         0000008800123456789012            강인선              00000000000000000000000000000000000000000000000000000000000  01111031547100000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880230010  3021041000002011110320111102100152020032903601032903                                                                                                                           20001347  0 3              정상                                    000448              0000000095946 00000000000000000000000000200329030056201550462949  강인선-하이         0000008800123456789012            강인선              00000000000000000000000000000000000000000000000000000000000  01111031547100000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300006000008880230010  302001100   2011110315475302102712020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000]  [554]</t>
+  </si>
+  <si>
+    <t>attr[14]  : 154753</t>
+  </si>
+  <si>
+    <t>attr[15]  : 0210271</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:34.624 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:34.624 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:34.624 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:34.624 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02001100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880230010  302001100   2011110315475302102712020032903601032903                                                                                                                           20001347  0 0                                                      000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201550462949  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000026|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#oamtAcntDivCd|00|   #12#oamtAcntNo|                |        #13#pswd|        |      #14#oamtAcntNm|강인선              |    #15#prFeeAmt|00000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG [CmsRecvGramCC.java:231] - 지점코드[0230], 단말코드[010  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #1#trOrgCd|C1004|       #2#trNo|201111030210271|        #3#trDt|2011-11-03|     #4#trSnum|210271|       #5#rcptTpCd|C1|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#bankCd|26|   #7#trAmt|95946.0|       #8#acntNo|56201550462949|       #9#depoOwnNo||  #10#depoOwnnm|강인선|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #11#iamtRsltCd|000|     #12#recvDt|2011-11-03|  #13#recvTm|154721|      #14#setlFg|0|   #15#setlNo|0|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#mngDeptCd|330000|   #27#unCnfmFg||  #28#procDt|2011-11-03|  #29#procTm|154721|      #30#procEmpNo|System|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #31#bankBrnchCd|0230|   #32#trmnCd|010  |</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:293] - acntNo56201550462949</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramDao.java:297] - SEARCH_LOAN_FOR_CMScom.cabis.sc.b.util.LoggableStatement@52175217</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:551] - CMS입금 응답전문--&gt;21R02001100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880230010  3021011000002011110315475302102712020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880230010  3021011000002011110315475302102712020032903601032903                                                                                                                           20001347  0 0              정상                                    000000              0000000095946 00000000000000000000000000200329030056201550462949                      0000002600                        강인선              000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000               00000][554]</t>
+  </si>
+  <si>
+    <t>[0585055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            ]  [585]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attr[8]   : 380  </t>
+  </si>
+  <si>
+    <t>attr[15]  : 0210381</t>
+  </si>
+  <si>
+    <t>attr[26]  : 000449</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:48.103 SyncCall.call Start</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:48.103 SyncCall.call Check 1</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:48.103 SyncCall.call Check 2</t>
+  </si>
+  <si>
+    <t>2011-11-03 15:47:48.103 SyncCall.call Finish - 직전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBUG [CmsRecvGramCC.java:48] - CMS입금 요청전문--&gt;21R02004100000000000000000000000000000000000020060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #2#trAmt|0000000001000| #3#lcalScalCd| |        #4#trAfRamt|0000000000000|      #5#etcAmt|0000000000000|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #6#iamtBankCd|20032903| #7#iamtAcntDivCd|00|    #8#iamtAcntNo|56201551025231  | #9#iamtAcntNm|                    |     #10#oamtBankCd|00000088|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #26#chkKindNo3|00|      #27#chkNo4|0  01111|    #28#chkIssuInfo4|031548|        #29#chkKindNo4|00|      #30#chkNo5|0000000 |</t>
+  </si>
+  <si>
+    <t>DEBUG [CmsRecvGramCC.java:671] - CMS입금 응답전문--&gt;21R02004100000000000000000000000000000000000 20060102101010000000000001SYSTEMOP1XXXXXXXXXXXXXXXXXXXX055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000</t>
+  </si>
+  <si>
+    <t>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000][554]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3061,8 +3573,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3114,6 +3633,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3321,7 +3858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3449,6 +3986,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3747,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5631,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7204,8 +7777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -27764,7 +28337,7 @@
   <dimension ref="B3:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -28244,4 +28817,4199 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="43" customFormat="1">
+      <c r="A1" s="43" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="44" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="45" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="44" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="44" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="44" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="45" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="45" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="44" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="45" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="44" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="44" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="44" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="45" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="44" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="45" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="44" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="44" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="44" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" s="43" customFormat="1">
+      <c r="A70" s="43" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="44" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="45" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="47" customFormat="1">
+      <c r="A79" s="46" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="44" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="44" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" s="43" customFormat="1">
+      <c r="A93" s="43" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="45" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="44" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="45" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="47" customFormat="1">
+      <c r="A102" s="46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="50" customFormat="1">
+      <c r="A107" s="49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="54" customFormat="1">
+      <c r="A110" s="53" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="43" customFormat="1">
+      <c r="A116" s="43" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="45" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="44" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="45" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="47" customFormat="1">
+      <c r="A125" s="46" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="50" customFormat="1">
+      <c r="A130" s="49" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" s="52" customFormat="1">
+      <c r="A133" s="51" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="43" customFormat="1">
+      <c r="A139" s="43" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="45" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="44" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="45" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="45" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="47" customFormat="1">
+      <c r="A148" s="46" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="45" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="45" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="45" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="45" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" s="50" customFormat="1">
+      <c r="A153" s="49" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="45" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="45" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="52" customFormat="1">
+      <c r="A156" s="51" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="45" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="45" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="45" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="45" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" s="43" customFormat="1"/>
+    <row r="166" spans="1:1" s="43" customFormat="1"/>
+    <row r="167" spans="1:1" s="50" customFormat="1">
+      <c r="A167" s="50" t="str">
+        <f>A156</f>
+        <v>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000]</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="52" customFormat="1">
+      <c r="A168" s="52" t="str">
+        <f>A156</f>
+        <v>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000]</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="45" t="b">
+        <f>A167=A168</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="43" customFormat="1"/>
+    <row r="171" spans="1:1" s="43" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B665"/>
+  <sheetViews>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="43" customFormat="1">
+      <c r="A1" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="44" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="45" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="45" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="45" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="45" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="45" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="44" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="45" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="45" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="45" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="45" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="45" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="45" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="45" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="45" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="45" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="44" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="44" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="43" customFormat="1">
+      <c r="A104" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="44" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="45" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="45" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="45" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="45" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="45" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="45" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="45" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="44" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="45" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="45" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="45" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="44" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="44" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="43" customFormat="1">
+      <c r="A187" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="44" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="45" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="45" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="45" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="45" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="45" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="45" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="45" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="45" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="44" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="45" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="45" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="45" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="45" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="45" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="45" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="45" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="45" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="45" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="45" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="45" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="45" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="44" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" s="50" customFormat="1">
+      <c r="A285" s="49" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" s="43" customFormat="1">
+      <c r="A290" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" s="47" customFormat="1">
+      <c r="A291" s="46" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="45" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="45" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="45" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="45" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="44" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="45" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="45" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="45" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="45" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="45" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="45" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="45" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="45" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="44" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" s="50" customFormat="1">
+      <c r="A388" s="49" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" s="43" customFormat="1">
+      <c r="A393" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" s="47" customFormat="1">
+      <c r="A394" s="46" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="45" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="45" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="45" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="45" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="45" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="45" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="45" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="45" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="44" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="45" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="45" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="45" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="45" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="44" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" s="50" customFormat="1">
+      <c r="A471" s="49" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" s="43" customFormat="1">
+      <c r="A476" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" s="47" customFormat="1">
+      <c r="A477" s="46" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="45" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="45" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="45" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="45" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="45" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="45" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="45" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="44" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="45" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="45" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="45" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="45" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="45" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="45" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="45" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="45" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="45" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="45" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="45" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="45" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="44" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" s="50" customFormat="1">
+      <c r="A574" s="49" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" s="43" customFormat="1">
+      <c r="A579" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" s="47" customFormat="1">
+      <c r="A580" s="46" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="45" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="45" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="45" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="45" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="45" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="45" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="45" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="45" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="45" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="45" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="44" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="45" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="45" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="45" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="44" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" s="50" customFormat="1">
+      <c r="A657" s="49" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="45" t="b">
+        <f>A662=A663</f>
+        <v>0</v>
+      </c>
+      <c r="B661" s="45" t="b">
+        <f>A664=A665</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="45" t="str">
+        <f>A580</f>
+        <v>[0585055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            ]  [585]</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" s="48" customFormat="1">
+      <c r="A663" s="48" t="str">
+        <f>ReceiveDaemon_log!A148</f>
+        <v>[0585055000092003290300006000008880000380  302004100   2011110320111102103812020032903601032903                                                                                                                           20001347  0 3                                                      000449              0000000001000 00000000000000000000000000200329030056201551025231                      0000008800123456789012                                00000                     0000000         00000000   000000  01111031548000000000                                                            ]</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="45" t="str">
+        <f>A657</f>
+        <v>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000][554]</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" s="48" customFormat="1">
+      <c r="A665" s="48" t="str">
+        <f>ReceiveDaemon_log!A156&amp;"["&amp;LEN(ReceiveDaemon_log!A153)&amp;"]"</f>
+        <v>[0554055000092003290300005000008880000380  3021041000002011110320111102103812020032903601032903                                                                                                                           20001347  0 3              정상                                    000449              0000000001000 00000000000000000000000000200329030056201551025231  -하이               0000008800123456789012                                00000000000000000000000000000000000000000000000000000000000  01111031548000000000000000000               00000][552]</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/KIBNET_전문.xlsx
+++ b/doc/KIBNET_전문.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18075" windowHeight="11820" tabRatio="878" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18075" windowHeight="11820" tabRatio="878" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="거래" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="2779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="2781">
   <si>
     <t>;</t>
   </si>
@@ -8587,6 +8587,14 @@
   </si>
   <si>
     <t xml:space="preserve"> -- SENDER SOCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9007,7 +9015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9483,6 +9491,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10716,13 +10727,33 @@
       <sheetName val="logSenderDaemon"/>
       <sheetName val="logReceiveDaemon"/>
       <sheetName val="logKibReceiver"/>
+      <sheetName val="logKR20111122"/>
       <sheetName val="가상계좌입금로그정리"/>
+      <sheetName val="전문-분해_조립"/>
+      <sheetName val="가상계좌_전문_분해_조립"/>
+      <sheetName val="가상계좌_전문_분해_조립 (2)"/>
       <sheetName val="TABLE DATA"/>
+      <sheetName val="우리은행_가상계좌"/>
       <sheetName val="테이블상세"/>
       <sheetName val="테이블상세처음"/>
       <sheetName val="참고테이블데이터"/>
       <sheetName val="참고테이블시퀀스"/>
       <sheetName val="전문로그테이블데이터"/>
+      <sheetName val="서비스목록"/>
+      <sheetName val="1. AP COMMON 구조(가상계좌)"/>
+      <sheetName val="1-1 가상계좌 입0200_1100 취0400_1100"/>
+      <sheetName val="1-3 수취조회 0200_4100"/>
+      <sheetName val="2. AP COMMON 구조(제휴업무)"/>
+      <sheetName val="2-1 지급이체 0200_1100"/>
+      <sheetName val="2-6 수취조회 0200_4100"/>
+      <sheetName val="3 은행_기관 관리 거래_0800_2100"/>
+      <sheetName val="2-15 이체처리결과조회 0200_6013"/>
+      <sheetName val="2-2 입금불능 0200-1700 "/>
+      <sheetName val="2-10 실명조회 0200-4800"/>
+      <sheetName val="2-11 예금거래명세통지결번 0200-5700"/>
+      <sheetName val="2-12 예금거래명세통지 0200-5900"/>
+      <sheetName val="A-1 HIC 거래"/>
+      <sheetName val="여신"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -10785,6 +10816,26 @@
       <sheetData sheetId="36" refreshError="1"/>
       <sheetData sheetId="37" refreshError="1"/>
       <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -43141,7 +43192,7 @@
         <f t="shared" ref="G6:G17" si="0">G5+F5</f>
         <v>3</v>
       </c>
-      <c r="H6" s="159">
+      <c r="H6" s="160">
         <v>3</v>
       </c>
     </row>
@@ -43163,7 +43214,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H7" s="159"/>
+      <c r="H7" s="160"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="50">
@@ -44077,7 +44128,7 @@
         <f t="shared" ref="G6:G17" si="0">G5+F5</f>
         <v>3</v>
       </c>
-      <c r="H6" s="160">
+      <c r="H6" s="161">
         <v>3</v>
       </c>
       <c r="I6" s="93"/>
@@ -44104,7 +44155,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H7" s="160"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="93"/>
       <c r="J7" s="66" t="s">
         <v>1140</v>
@@ -45926,8 +45977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -45952,16 +46003,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="104" t="e">
-        <f>MID(#REF!, F9,H9)</f>
-        <v>#REF!</v>
+      <c r="C1" s="159" t="s">
+        <v>2779</v>
       </c>
       <c r="D1" s="105" t="s">
         <v>1193</v>
       </c>
-      <c r="E1" s="104" t="e">
-        <f>MID(#REF!, F9+H9,G9-H9)</f>
-        <v>#REF!</v>
+      <c r="E1" s="104" t="s">
+        <v>2780</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -46067,9 +46116,9 @@
       <c r="F9" s="105">
         <v>21</v>
       </c>
-      <c r="G9" s="111" t="e">
+      <c r="G9" s="111">
         <f>VALUE(C1)</f>
-        <v>#REF!</v>
+        <v>585</v>
       </c>
       <c r="H9" s="110">
         <v>4</v>
@@ -46078,9 +46127,9 @@
         <f>VALUE(C2)</f>
         <v>554</v>
       </c>
-      <c r="J9" s="104" t="e">
+      <c r="J9" s="104" t="str">
         <f>E1</f>
-        <v>#REF!</v>
+        <v xml:space="preserve">055000092003290300006000008880040010  302004100   2011110320111102096872020032903601032903                                                                                                                           20001347  0 3                                                      000447              0000000100000 00000000000000000000000000200329030056201550207156                      0000008800123456789012            박정현              00000                     0000000         00000000   000000  01111031546300000000                                                            </v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -47130,17 +47179,17 @@
         <v>104</v>
       </c>
       <c r="I34" s="106"/>
-      <c r="J34" s="115" t="e">
+      <c r="J34" s="115" t="str">
         <f>"'"&amp;MIDB($J$9,G10+1,F34)&amp;"'"</f>
-        <v>#REF!</v>
+        <v>'    '</v>
       </c>
       <c r="K34" s="115" t="str">
         <f>"'"&amp;MIDB($J$10,H32+1,F34)&amp;"'"</f>
         <v>'0550'</v>
       </c>
-      <c r="L34" s="119" t="e">
+      <c r="L34" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M34" s="115" t="str">
         <f>"'"&amp;MIDB($J$11,H32+1,F34)&amp;"'"</f>
@@ -47196,17 +47245,17 @@
         <v>108</v>
       </c>
       <c r="I35" s="106"/>
-      <c r="J35" s="115" t="e">
+      <c r="J35" s="115" t="str">
         <f t="shared" ref="J35:J61" si="9">"'"&amp;MIDB($J$9,G34+1,F35)&amp;"'"</f>
-        <v>#REF!</v>
+        <v>'0009'</v>
       </c>
       <c r="K35" s="115" t="str">
         <f>"'"&amp;MIDB($J$10,H34+1,F35)&amp;"'"</f>
         <v>'0009'</v>
       </c>
-      <c r="L35" s="119" t="e">
+      <c r="L35" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M35" s="115" t="str">
         <f>"'"&amp;MIDB($J$11,H34+1,F35)&amp;"'"</f>
@@ -47262,17 +47311,17 @@
         <v>116</v>
       </c>
       <c r="I36" s="106"/>
-      <c r="J36" s="115" t="e">
+      <c r="J36" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'20032903'</v>
       </c>
       <c r="K36" s="115" t="str">
         <f t="shared" ref="K36:K61" si="11">"'"&amp;MIDB($J$10,H35+1,F36)&amp;"'"</f>
         <v>'20032903'</v>
       </c>
-      <c r="L36" s="119" t="e">
+      <c r="L36" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M36" s="115" t="str">
         <f t="shared" ref="M36:M61" si="12">"'"&amp;MIDB($J$11,H35+1,F36)&amp;"'"</f>
@@ -47328,17 +47377,17 @@
         <v>117</v>
       </c>
       <c r="I37" s="106"/>
-      <c r="J37" s="115" t="e">
+      <c r="J37" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0'</v>
       </c>
       <c r="K37" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0'</v>
       </c>
-      <c r="L37" s="119" t="e">
+      <c r="L37" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M37" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47394,17 +47443,17 @@
         <v>120</v>
       </c>
       <c r="I38" s="106"/>
-      <c r="J38" s="115" t="e">
+      <c r="J38" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'000'</v>
       </c>
       <c r="K38" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'000'</v>
       </c>
-      <c r="L38" s="119" t="e">
+      <c r="L38" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M38" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47460,17 +47509,17 @@
         <v>121</v>
       </c>
       <c r="I39" s="106"/>
-      <c r="J39" s="115" t="e">
+      <c r="J39" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'6'</v>
       </c>
       <c r="K39" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'6'</v>
       </c>
-      <c r="L39" s="119" t="e">
+      <c r="L39" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M39" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47526,17 +47575,17 @@
         <v>129</v>
       </c>
       <c r="I40" s="106"/>
-      <c r="J40" s="115" t="e">
+      <c r="J40" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'00000888'</v>
       </c>
       <c r="K40" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'00000888'</v>
       </c>
-      <c r="L40" s="119" t="e">
+      <c r="L40" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M40" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47592,17 +47641,17 @@
         <v>133</v>
       </c>
       <c r="I41" s="106"/>
-      <c r="J41" s="115" t="e">
+      <c r="J41" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0040'</v>
       </c>
       <c r="K41" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0120'</v>
       </c>
-      <c r="L41" s="119" t="e">
+      <c r="L41" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M41" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47658,17 +47707,17 @@
         <v>138</v>
       </c>
       <c r="I42" s="106"/>
-      <c r="J42" s="115" t="e">
+      <c r="J42" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'010  '</v>
       </c>
       <c r="K42" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'010  '</v>
       </c>
-      <c r="L42" s="119" t="e">
+      <c r="L42" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M42" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47724,17 +47773,17 @@
         <v>139</v>
       </c>
       <c r="I43" s="106"/>
-      <c r="J43" s="115" t="e">
+      <c r="J43" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'3'</v>
       </c>
       <c r="K43" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'3'</v>
       </c>
-      <c r="L43" s="119" t="e">
+      <c r="L43" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M43" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47790,17 +47839,17 @@
         <v>143</v>
       </c>
       <c r="I44" s="106"/>
-      <c r="J44" s="115" t="e">
+      <c r="J44" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0200'</v>
       </c>
       <c r="K44" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0200'</v>
       </c>
-      <c r="L44" s="119" t="e">
+      <c r="L44" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M44" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47856,17 +47905,17 @@
         <v>147</v>
       </c>
       <c r="I45" s="106"/>
-      <c r="J45" s="115" t="e">
+      <c r="J45" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'4100'</v>
       </c>
       <c r="K45" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'1100'</v>
       </c>
-      <c r="L45" s="119" t="e">
+      <c r="L45" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M45" s="115" t="str">
         <f t="shared" si="12"/>
@@ -47922,17 +47971,17 @@
         <v>150</v>
       </c>
       <c r="I46" s="123"/>
-      <c r="J46" s="123" t="e">
+      <c r="J46" s="123" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'   '</v>
       </c>
       <c r="K46" s="123" t="str">
         <f t="shared" si="11"/>
         <v>'   '</v>
       </c>
-      <c r="L46" s="124" t="e">
+      <c r="L46" s="124" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M46" s="123" t="str">
         <f t="shared" si="12"/>
@@ -47988,17 +48037,17 @@
         <v>158</v>
       </c>
       <c r="I47" s="121"/>
-      <c r="J47" s="121" t="e">
+      <c r="J47" s="121" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'20111103'</v>
       </c>
       <c r="K47" s="121" t="str">
         <f t="shared" si="11"/>
         <v>'20111103'</v>
       </c>
-      <c r="L47" s="122" t="e">
+      <c r="L47" s="122" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M47" s="121" t="str">
         <f t="shared" si="12"/>
@@ -48054,17 +48103,17 @@
         <v>164</v>
       </c>
       <c r="I48" s="106"/>
-      <c r="J48" s="115" t="e">
+      <c r="J48" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'201111'</v>
       </c>
       <c r="K48" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'154631'</v>
       </c>
-      <c r="L48" s="119" t="e">
+      <c r="L48" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M48" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48120,17 +48169,17 @@
         <v>171</v>
       </c>
       <c r="I49" s="121"/>
-      <c r="J49" s="121" t="e">
+      <c r="J49" s="121" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0209687'</v>
       </c>
       <c r="K49" s="121" t="str">
         <f t="shared" si="11"/>
         <v>'0209662'</v>
       </c>
-      <c r="L49" s="122" t="e">
+      <c r="L49" s="122" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M49" s="121" t="str">
         <f t="shared" si="12"/>
@@ -48186,17 +48235,17 @@
         <v>172</v>
       </c>
       <c r="I50" s="106"/>
-      <c r="J50" s="115" t="e">
+      <c r="J50" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'2'</v>
       </c>
       <c r="K50" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'2'</v>
       </c>
-      <c r="L50" s="119" t="e">
+      <c r="L50" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M50" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48252,17 +48301,17 @@
         <v>173</v>
       </c>
       <c r="I51" s="106"/>
-      <c r="J51" s="115" t="e">
+      <c r="J51" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0'</v>
       </c>
       <c r="K51" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0'</v>
       </c>
-      <c r="L51" s="119" t="e">
+      <c r="L51" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M51" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48318,17 +48367,17 @@
         <v>181</v>
       </c>
       <c r="I52" s="106"/>
-      <c r="J52" s="115" t="e">
+      <c r="J52" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'20032903'</v>
       </c>
       <c r="K52" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'20032903'</v>
       </c>
-      <c r="L52" s="119" t="e">
+      <c r="L52" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M52" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48384,17 +48433,17 @@
         <v>182</v>
       </c>
       <c r="I53" s="106"/>
-      <c r="J53" s="115" t="e">
+      <c r="J53" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'6'</v>
       </c>
       <c r="K53" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'6'</v>
       </c>
-      <c r="L53" s="119" t="e">
+      <c r="L53" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M53" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48450,17 +48499,17 @@
         <v>323</v>
       </c>
       <c r="I54" s="106"/>
-      <c r="J54" s="115" t="e">
+      <c r="J54" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'01032903                                                                                                                           20001347  '</v>
       </c>
       <c r="K54" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'01032903                                                                                                                           20001347  '</v>
       </c>
-      <c r="L54" s="119" t="e">
+      <c r="L54" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M54" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48516,17 +48565,17 @@
         <v>324</v>
       </c>
       <c r="I55" s="106"/>
-      <c r="J55" s="115" t="e">
+      <c r="J55" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'0'</v>
       </c>
       <c r="K55" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0'</v>
       </c>
-      <c r="L55" s="119" t="e">
+      <c r="L55" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M55" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48582,17 +48631,17 @@
         <v>325</v>
       </c>
       <c r="I56" s="106"/>
-      <c r="J56" s="115" t="e">
+      <c r="J56" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>' '</v>
       </c>
       <c r="K56" s="115" t="str">
         <f t="shared" si="11"/>
         <v>' '</v>
       </c>
-      <c r="L56" s="119" t="e">
+      <c r="L56" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M56" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48648,17 +48697,17 @@
         <v>326</v>
       </c>
       <c r="I57" s="106"/>
-      <c r="J57" s="115" t="e">
+      <c r="J57" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'3'</v>
       </c>
       <c r="K57" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'0'</v>
       </c>
-      <c r="L57" s="119" t="e">
+      <c r="L57" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M57" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48714,17 +48763,17 @@
         <v>340</v>
       </c>
       <c r="I58" s="106"/>
-      <c r="J58" s="115" t="e">
+      <c r="J58" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'              '</v>
       </c>
       <c r="K58" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'              '</v>
       </c>
-      <c r="L58" s="119" t="e">
+      <c r="L58" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M58" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48780,17 +48829,17 @@
         <v>380</v>
       </c>
       <c r="I59" s="106"/>
-      <c r="J59" s="115" t="e">
+      <c r="J59" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'                                        '</v>
       </c>
       <c r="K59" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'                                        '</v>
       </c>
-      <c r="L59" s="119" t="e">
+      <c r="L59" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M59" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48846,17 +48895,17 @@
         <v>386</v>
       </c>
       <c r="I60" s="106"/>
-      <c r="J60" s="115" t="e">
+      <c r="J60" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'000447'</v>
       </c>
       <c r="K60" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'000000'</v>
       </c>
-      <c r="L60" s="119" t="e">
+      <c r="L60" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M60" s="115" t="str">
         <f t="shared" si="12"/>
@@ -48912,17 +48961,17 @@
         <v>400</v>
       </c>
       <c r="I61" s="106"/>
-      <c r="J61" s="115" t="e">
+      <c r="J61" s="115" t="str">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>'              '</v>
       </c>
       <c r="K61" s="115" t="str">
         <f t="shared" si="11"/>
         <v>'              '</v>
       </c>
-      <c r="L61" s="119" t="e">
+      <c r="L61" s="119" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M61" s="115" t="str">
         <f t="shared" si="12"/>
@@ -49012,17 +49061,17 @@
         <v>413</v>
       </c>
       <c r="I63" s="107"/>
-      <c r="J63" s="107" t="e">
+      <c r="J63" s="107" t="str">
         <f>"'"&amp;MIDB($J$9,G61+1,F63)&amp;"'"</f>
-        <v>#REF!</v>
+        <v>'0000000100000'</v>
       </c>
       <c r="K63" s="107" t="str">
         <f>"'"&amp;MIDB($J$10,H61+1,F63)&amp;"'"</f>
         <v>'0000000099996'</v>
       </c>
-      <c r="L63" s="120" t="e">
+      <c r="L63" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M63" s="107" t="str">
         <f>"'"&amp;MIDB($J$11,H61+1,F63)&amp;"'"</f>
@@ -49078,17 +49127,17 @@
         <v>414</v>
       </c>
       <c r="I64" s="107"/>
-      <c r="J64" s="107" t="e">
+      <c r="J64" s="107" t="str">
         <f t="shared" ref="J64:J96" si="16">"'"&amp;MIDB($J$9,G63+1,F64)&amp;"'"</f>
-        <v>#REF!</v>
+        <v>' '</v>
       </c>
       <c r="K64" s="107" t="str">
         <f>"'"&amp;MIDB($J$10,H63+1,F64)&amp;"'"</f>
         <v>' '</v>
       </c>
-      <c r="L64" s="120" t="e">
+      <c r="L64" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M64" s="107" t="str">
         <f>"'"&amp;MIDB($J$11,H63+1,F64)&amp;"'"</f>
@@ -49144,17 +49193,17 @@
         <v>427</v>
       </c>
       <c r="I65" s="107"/>
-      <c r="J65" s="107" t="e">
+      <c r="J65" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'0000000000000'</v>
       </c>
       <c r="K65" s="107" t="str">
         <f t="shared" ref="K65:K96" si="19">"'"&amp;MIDB($J$10,H64+1,F65)&amp;"'"</f>
         <v>'0000000000000'</v>
       </c>
-      <c r="L65" s="120" t="e">
+      <c r="L65" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M65" s="107" t="str">
         <f t="shared" ref="M65:M96" si="20">"'"&amp;MIDB($J$11,H64+1,F65)&amp;"'"</f>
@@ -49210,17 +49259,17 @@
         <v>440</v>
       </c>
       <c r="I66" s="107"/>
-      <c r="J66" s="107" t="e">
+      <c r="J66" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'0000000000000'</v>
       </c>
       <c r="K66" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'0000000000000'</v>
       </c>
-      <c r="L66" s="120" t="e">
+      <c r="L66" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M66" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49276,17 +49325,17 @@
         <v>448</v>
       </c>
       <c r="I67" s="107"/>
-      <c r="J67" s="107" t="e">
+      <c r="J67" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'20032903'</v>
       </c>
       <c r="K67" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'20032903'</v>
       </c>
-      <c r="L67" s="120" t="e">
+      <c r="L67" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M67" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49342,17 +49391,17 @@
         <v>450</v>
       </c>
       <c r="I68" s="107"/>
-      <c r="J68" s="107" t="e">
+      <c r="J68" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00'</v>
       </c>
       <c r="K68" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L68" s="120" t="e">
+      <c r="L68" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M68" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49408,17 +49457,17 @@
         <v>466</v>
       </c>
       <c r="I69" s="107"/>
-      <c r="J69" s="107" t="e">
+      <c r="J69" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'56201550207156  '</v>
       </c>
       <c r="K69" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'56201550486180  '</v>
       </c>
-      <c r="L69" s="120" t="e">
+      <c r="L69" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M69" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49474,17 +49523,17 @@
         <v>486</v>
       </c>
       <c r="I70" s="107"/>
-      <c r="J70" s="107" t="e">
+      <c r="J70" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'                    '</v>
       </c>
       <c r="K70" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'                    '</v>
       </c>
-      <c r="L70" s="120" t="e">
+      <c r="L70" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M70" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49540,17 +49589,17 @@
         <v>494</v>
       </c>
       <c r="I71" s="107"/>
-      <c r="J71" s="107" t="e">
+      <c r="J71" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00000088'</v>
       </c>
       <c r="K71" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00000026'</v>
       </c>
-      <c r="L71" s="120" t="e">
+      <c r="L71" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M71" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49606,17 +49655,17 @@
         <v>496</v>
       </c>
       <c r="I72" s="107"/>
-      <c r="J72" s="107" t="e">
+      <c r="J72" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00'</v>
       </c>
       <c r="K72" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L72" s="120" t="e">
+      <c r="L72" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M72" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49672,17 +49721,17 @@
         <v>512</v>
       </c>
       <c r="I73" s="107"/>
-      <c r="J73" s="107" t="e">
+      <c r="J73" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'123456789012    '</v>
       </c>
       <c r="K73" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'                '</v>
       </c>
-      <c r="L73" s="120" t="e">
+      <c r="L73" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M73" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49738,17 +49787,17 @@
         <v>520</v>
       </c>
       <c r="I74" s="107"/>
-      <c r="J74" s="107" t="e">
+      <c r="J74" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'        '</v>
       </c>
       <c r="K74" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'        '</v>
       </c>
-      <c r="L74" s="120" t="e">
+      <c r="L74" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M74" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49803,17 +49852,17 @@
         <v>540</v>
       </c>
       <c r="I75" s="107"/>
-      <c r="J75" s="107" t="e">
+      <c r="J75" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'박정현              '</v>
       </c>
       <c r="K75" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'강기주　　          '</v>
       </c>
-      <c r="L75" s="120" t="e">
+      <c r="L75" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M75" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49869,17 +49918,17 @@
         <v>545</v>
       </c>
       <c r="I76" s="107"/>
-      <c r="J76" s="107" t="e">
+      <c r="J76" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00000'</v>
       </c>
       <c r="K76" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00000'</v>
       </c>
-      <c r="L76" s="120" t="e">
+      <c r="L76" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M76" s="107" t="str">
         <f t="shared" si="20"/>
@@ -49935,17 +49984,17 @@
         <v>548</v>
       </c>
       <c r="I77" s="107"/>
-      <c r="J77" s="107" t="e">
+      <c r="J77" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'   '</v>
       </c>
       <c r="K77" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'000'</v>
       </c>
-      <c r="L77" s="120" t="e">
+      <c r="L77" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M77" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50001,17 +50050,17 @@
         <v>550</v>
       </c>
       <c r="I78" s="107"/>
-      <c r="J78" s="107" t="e">
+      <c r="J78" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'  '</v>
       </c>
       <c r="K78" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L78" s="120" t="e">
+      <c r="L78" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M78" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50067,17 +50116,17 @@
         <v>558</v>
       </c>
       <c r="I79" s="108"/>
-      <c r="J79" s="108" t="e">
+      <c r="J79" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'        '</v>
       </c>
       <c r="K79" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00000000'</v>
       </c>
-      <c r="L79" s="117" t="e">
+      <c r="L79" s="117" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M79" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50133,17 +50182,17 @@
         <v>564</v>
       </c>
       <c r="I80" s="108"/>
-      <c r="J80" s="108" t="e">
+      <c r="J80" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'      '</v>
       </c>
       <c r="K80" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'000000'</v>
       </c>
-      <c r="L80" s="117" t="e">
+      <c r="L80" s="117" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M80" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50199,17 +50248,17 @@
         <v>566</v>
       </c>
       <c r="I81" s="108"/>
-      <c r="J81" s="108" t="e">
+      <c r="J81" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'  '</v>
       </c>
       <c r="K81" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L81" s="117" t="e">
+      <c r="L81" s="117" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M81" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50265,17 +50314,17 @@
         <v>574</v>
       </c>
       <c r="I82" s="107"/>
-      <c r="J82" s="107" t="e">
+      <c r="J82" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'0000000 '</v>
       </c>
       <c r="K82" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00000000'</v>
       </c>
-      <c r="L82" s="120" t="e">
+      <c r="L82" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M82" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50331,17 +50380,17 @@
         <v>580</v>
       </c>
       <c r="I83" s="107"/>
-      <c r="J83" s="107" t="e">
+      <c r="J83" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'      '</v>
       </c>
       <c r="K83" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'000000'</v>
       </c>
-      <c r="L83" s="120" t="e">
+      <c r="L83" s="120" t="b">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M83" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50397,17 +50446,17 @@
         <v>582</v>
       </c>
       <c r="I84" s="107"/>
-      <c r="J84" s="107" t="e">
+      <c r="J84" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'  '</v>
       </c>
       <c r="K84" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L84" s="120" t="e">
+      <c r="L84" s="120" t="b">
         <f t="shared" ref="L84:L97" si="22">J84=K84</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M84" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50463,17 +50512,17 @@
         <v>590</v>
       </c>
       <c r="I85" s="108"/>
-      <c r="J85" s="108" t="e">
+      <c r="J85" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00000000'</v>
       </c>
       <c r="K85" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00000000'</v>
       </c>
-      <c r="L85" s="117" t="e">
+      <c r="L85" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M85" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50529,17 +50578,17 @@
         <v>596</v>
       </c>
       <c r="I86" s="108"/>
-      <c r="J86" s="108" t="e">
+      <c r="J86" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'   000'</v>
       </c>
       <c r="K86" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'000000'</v>
       </c>
-      <c r="L86" s="117" t="e">
+      <c r="L86" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M86" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50595,17 +50644,17 @@
         <v>598</v>
       </c>
       <c r="I87" s="108"/>
-      <c r="J87" s="108" t="e">
+      <c r="J87" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'00'</v>
       </c>
       <c r="K87" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L87" s="117" t="e">
+      <c r="L87" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M87" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50661,17 +50710,17 @@
         <v>606</v>
       </c>
       <c r="I88" s="107"/>
-      <c r="J88" s="107" t="e">
+      <c r="J88" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'0  01111'</v>
       </c>
       <c r="K88" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00000000'</v>
       </c>
-      <c r="L88" s="120" t="e">
+      <c r="L88" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M88" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50727,17 +50776,17 @@
         <v>612</v>
       </c>
       <c r="I89" s="107"/>
-      <c r="J89" s="107" t="e">
+      <c r="J89" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'031546'</v>
       </c>
       <c r="K89" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'000000'</v>
       </c>
-      <c r="L89" s="120" t="e">
+      <c r="L89" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M89" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50793,17 +50842,17 @@
         <v>614</v>
       </c>
       <c r="I90" s="107"/>
-      <c r="J90" s="107" t="e">
+      <c r="J90" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'30'</v>
       </c>
       <c r="K90" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L90" s="120" t="e">
+      <c r="L90" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M90" s="107" t="str">
         <f t="shared" si="20"/>
@@ -50859,17 +50908,17 @@
         <v>622</v>
       </c>
       <c r="I91" s="108"/>
-      <c r="J91" s="108" t="e">
+      <c r="J91" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'0000000 '</v>
       </c>
       <c r="K91" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00000000'</v>
       </c>
-      <c r="L91" s="117" t="e">
+      <c r="L91" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M91" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50925,17 +50974,17 @@
         <v>628</v>
       </c>
       <c r="I92" s="108"/>
-      <c r="J92" s="108" t="e">
+      <c r="J92" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'      '</v>
       </c>
       <c r="K92" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'000000'</v>
       </c>
-      <c r="L92" s="117" t="e">
+      <c r="L92" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M92" s="108" t="str">
         <f t="shared" si="20"/>
@@ -50991,17 +51040,17 @@
         <v>630</v>
       </c>
       <c r="I93" s="108"/>
-      <c r="J93" s="108" t="e">
+      <c r="J93" s="108" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'  '</v>
       </c>
       <c r="K93" s="108" t="str">
         <f t="shared" si="19"/>
         <v>'00'</v>
       </c>
-      <c r="L93" s="117" t="e">
+      <c r="L93" s="117" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M93" s="108" t="str">
         <f t="shared" si="20"/>
@@ -51057,17 +51106,17 @@
         <v>633</v>
       </c>
       <c r="I94" s="107"/>
-      <c r="J94" s="107" t="e">
+      <c r="J94" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'   '</v>
       </c>
       <c r="K94" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'   '</v>
       </c>
-      <c r="L94" s="120" t="e">
+      <c r="L94" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M94" s="107" t="str">
         <f t="shared" si="20"/>
@@ -51123,17 +51172,17 @@
         <v>645</v>
       </c>
       <c r="I95" s="107"/>
-      <c r="J95" s="107" t="e">
+      <c r="J95" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'            '</v>
       </c>
       <c r="K95" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'            '</v>
       </c>
-      <c r="L95" s="120" t="e">
+      <c r="L95" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="M95" s="107" t="str">
         <f t="shared" si="20"/>
@@ -51189,17 +51238,17 @@
         <v>650</v>
       </c>
       <c r="I96" s="107"/>
-      <c r="J96" s="107" t="e">
+      <c r="J96" s="107" t="str">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>'     '</v>
       </c>
       <c r="K96" s="107" t="str">
         <f t="shared" si="19"/>
         <v>'00000'</v>
       </c>
-      <c r="L96" s="120" t="e">
+      <c r="L96" s="120" t="b">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M96" s="107" t="str">
         <f t="shared" si="20"/>
@@ -51307,8 +51356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
